--- a/AnalysisPAP.xlsx
+++ b/AnalysisPAP.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einra\OneDrive\Desktop\Master Final\DataForAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC277445-714A-41E0-B569-FE7770D929A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AAFAFC-575E-43A0-BDB6-877DDB9F0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="4200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +199,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -530,8 +548,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -886,14 +907,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -921,7 +944,7 @@
         <v>321.22518480000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -935,7 +958,7 @@
         <v>405.66816360000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -949,7 +972,7 @@
         <v>319.33336209999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -963,7 +986,7 @@
         <v>378.28245029999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -971,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>30.474274609999998</v>
+        <v>28.080832099999999</v>
       </c>
       <c r="D6">
-        <v>459.28465189999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>373.3431607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -991,7 +1014,7 @@
         <v>459.7319746</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1005,7 +1028,7 @@
         <v>226.5781964</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1018,8 +1041,9 @@
       <c r="D9">
         <v>461.65207550000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1033,7 +1057,7 @@
         <v>372.93586440000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1047,7 +1071,7 @@
         <v>364.74597820000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1061,7 +1085,7 @@
         <v>373.3431607</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1075,7 +1099,7 @@
         <v>474.87585460000003</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1089,7 +1113,7 @@
         <v>603.04406349999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1103,7 +1127,7 @@
         <v>465.25128669999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1125,10 +1149,10 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>44.531485310000001</v>
+        <v>37.034043699999998</v>
       </c>
       <c r="D17">
-        <v>692.41658410000002</v>
+        <v>511.82252360000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,10 +1303,10 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>33.351685430000003</v>
+        <v>27.999433</v>
       </c>
       <c r="D28">
-        <v>498.2314561</v>
+        <v>360.73731240000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1433,10 +1457,10 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>31.351685140000001</v>
+        <v>26.668251321</v>
       </c>
       <c r="D39">
-        <v>480.21653129999999</v>
+        <v>344.10072000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,10 +1611,10 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>31.21216845</v>
+        <v>26.292429899999998</v>
       </c>
       <c r="D50">
-        <v>479.53138539999998</v>
+        <v>337.62088169999998</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,5 +1703,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>